--- a/tests/fixtures/orderforms/1508.35.fastq.xlsx
+++ b/tests/fixtures/orderforms/1508.35.fastq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsdiazboada/Documents/Clinical_Genomics/repos/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BE9C4D-091F-9E41-ADFC-843FDAF428E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF8C144-1A78-A845-A2A4-F3B8E9645BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59080" yWindow="-13500" windowWidth="29880" windowHeight="33360" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-13500" windowWidth="60160" windowHeight="33360" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="838">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -3777,6 +3777,9 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>cytology (fixed)</t>
   </si>
 </sst>
 </file>
@@ -4945,6 +4948,10 @@
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4977,10 +4984,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -5977,8 +5980,8 @@
   </sheetPr>
   <dimension ref="A1:AMM395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AF15" sqref="AF15:AJ16"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -12270,56 +12273,56 @@
       <c r="AJ8" s="30"/>
     </row>
     <row r="9" spans="1:1026" s="35" customFormat="1" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="158" t="s">
+      <c r="A9" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="159"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="159"/>
-      <c r="J9" s="159"/>
-      <c r="K9" s="159"/>
-      <c r="L9" s="159"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="160"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="160"/>
+      <c r="K9" s="160"/>
+      <c r="L9" s="160"/>
+      <c r="M9" s="160"/>
+      <c r="N9" s="161"/>
       <c r="O9" s="31"/>
-      <c r="P9" s="162" t="s">
+      <c r="P9" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="162"/>
+      <c r="Q9" s="163"/>
       <c r="R9" s="34"/>
       <c r="S9" s="106" t="s">
         <v>675</v>
       </c>
       <c r="T9"/>
-      <c r="U9" s="163" t="s">
+      <c r="U9" s="164" t="s">
         <v>682</v>
       </c>
-      <c r="V9" s="164"/>
-      <c r="W9" s="164"/>
-      <c r="X9" s="165"/>
+      <c r="V9" s="165"/>
+      <c r="W9" s="165"/>
+      <c r="X9" s="166"/>
       <c r="Y9" s="32"/>
       <c r="Z9" s="33" t="s">
         <v>13</v>
       </c>
       <c r="AA9" s="34"/>
-      <c r="AB9" s="161" t="s">
+      <c r="AB9" s="162" t="s">
         <v>683</v>
       </c>
-      <c r="AC9" s="161"/>
-      <c r="AD9" s="161"/>
+      <c r="AC9" s="162"/>
+      <c r="AD9" s="162"/>
       <c r="AE9" s="32"/>
-      <c r="AF9" s="166" t="s">
+      <c r="AF9" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="AG9" s="167"/>
-      <c r="AH9" s="167"/>
-      <c r="AI9" s="167"/>
-      <c r="AJ9" s="168"/>
+      <c r="AG9" s="168"/>
+      <c r="AH9" s="168"/>
+      <c r="AI9" s="168"/>
+      <c r="AJ9" s="169"/>
     </row>
     <row r="10" spans="1:1026" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="36" t="s">
@@ -14750,7 +14753,7 @@
       <c r="P16" s="70"/>
       <c r="Q16" s="85"/>
       <c r="R16" s="74"/>
-      <c r="S16" s="169" t="s">
+      <c r="S16" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U16" s="88"/>
@@ -15811,7 +15814,7 @@
       <c r="P17" s="70"/>
       <c r="Q17" s="85"/>
       <c r="R17" s="74"/>
-      <c r="S17" s="169" t="s">
+      <c r="S17" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U17" s="88"/>
@@ -16868,7 +16871,7 @@
       <c r="P18" s="70"/>
       <c r="Q18" s="85"/>
       <c r="R18" s="74"/>
-      <c r="S18" s="169" t="s">
+      <c r="S18" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U18" s="88"/>
@@ -17925,7 +17928,7 @@
       <c r="P19" s="70"/>
       <c r="Q19" s="85"/>
       <c r="R19" s="74"/>
-      <c r="S19" s="169" t="s">
+      <c r="S19" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U19" s="88"/>
@@ -18982,7 +18985,7 @@
       <c r="P20" s="70"/>
       <c r="Q20" s="85"/>
       <c r="R20" s="74"/>
-      <c r="S20" s="169" t="s">
+      <c r="S20" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U20" s="88"/>
@@ -20039,7 +20042,7 @@
       <c r="P21" s="70"/>
       <c r="Q21" s="85"/>
       <c r="R21" s="74"/>
-      <c r="S21" s="169" t="s">
+      <c r="S21" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U21" s="88"/>
@@ -21096,7 +21099,7 @@
       <c r="P22" s="70"/>
       <c r="Q22" s="85"/>
       <c r="R22" s="74"/>
-      <c r="S22" s="169" t="s">
+      <c r="S22" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U22" s="88"/>
@@ -22153,7 +22156,7 @@
       <c r="P23" s="70"/>
       <c r="Q23" s="85"/>
       <c r="R23" s="74"/>
-      <c r="S23" s="169" t="s">
+      <c r="S23" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U23" s="88"/>
@@ -23210,7 +23213,7 @@
       <c r="P24" s="70"/>
       <c r="Q24" s="85"/>
       <c r="R24" s="74"/>
-      <c r="S24" s="169" t="s">
+      <c r="S24" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U24" s="88"/>
@@ -24267,7 +24270,7 @@
       <c r="P25" s="70"/>
       <c r="Q25" s="85"/>
       <c r="R25" s="74"/>
-      <c r="S25" s="169" t="s">
+      <c r="S25" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U25" s="88"/>
@@ -25324,7 +25327,7 @@
       <c r="P26" s="70"/>
       <c r="Q26" s="85"/>
       <c r="R26" s="74"/>
-      <c r="S26" s="169" t="s">
+      <c r="S26" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U26" s="88"/>
@@ -26381,7 +26384,7 @@
       <c r="P27" s="70"/>
       <c r="Q27" s="85"/>
       <c r="R27" s="74"/>
-      <c r="S27" s="169" t="s">
+      <c r="S27" s="158" t="s">
         <v>71</v>
       </c>
       <c r="T27"/>
@@ -26449,7 +26452,7 @@
       <c r="P28" s="70"/>
       <c r="Q28" s="85"/>
       <c r="R28" s="74"/>
-      <c r="S28" s="169" t="s">
+      <c r="S28" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U28" s="88"/>
@@ -27506,7 +27509,7 @@
       <c r="P29" s="70"/>
       <c r="Q29" s="85"/>
       <c r="R29" s="74"/>
-      <c r="S29" s="169" t="s">
+      <c r="S29" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U29" s="88"/>
@@ -28542,7 +28545,7 @@
         <v>67</v>
       </c>
       <c r="I30" s="82" t="s">
-        <v>133</v>
+        <v>837</v>
       </c>
       <c r="J30" s="83" t="s">
         <v>93</v>
@@ -28563,7 +28566,7 @@
       <c r="P30" s="70"/>
       <c r="Q30" s="85"/>
       <c r="R30" s="74"/>
-      <c r="S30" s="169" t="s">
+      <c r="S30" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U30" s="88"/>
@@ -29620,7 +29623,7 @@
       <c r="P31" s="70"/>
       <c r="Q31" s="85"/>
       <c r="R31" s="74"/>
-      <c r="S31" s="169" t="s">
+      <c r="S31" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U31" s="88"/>
@@ -30677,7 +30680,7 @@
       <c r="P32" s="70"/>
       <c r="Q32" s="85"/>
       <c r="R32" s="74"/>
-      <c r="S32" s="169" t="s">
+      <c r="S32" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U32" s="88"/>
@@ -31734,7 +31737,7 @@
       <c r="P33" s="70"/>
       <c r="Q33" s="85"/>
       <c r="R33" s="74"/>
-      <c r="S33" s="169" t="s">
+      <c r="S33" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U33" s="88"/>
@@ -32791,7 +32794,7 @@
       <c r="P34" s="70"/>
       <c r="Q34" s="85"/>
       <c r="R34" s="74"/>
-      <c r="S34" s="169" t="s">
+      <c r="S34" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U34" s="88"/>
@@ -33848,7 +33851,7 @@
       <c r="P35" s="70"/>
       <c r="Q35" s="85"/>
       <c r="R35" s="74"/>
-      <c r="S35" s="169" t="s">
+      <c r="S35" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U35" s="88"/>
@@ -34905,7 +34908,7 @@
       <c r="P36" s="70"/>
       <c r="Q36" s="85"/>
       <c r="R36" s="74"/>
-      <c r="S36" s="169" t="s">
+      <c r="S36" s="158" t="s">
         <v>71</v>
       </c>
       <c r="T36"/>
@@ -34973,7 +34976,7 @@
       <c r="P37" s="70"/>
       <c r="Q37" s="85"/>
       <c r="R37" s="74"/>
-      <c r="S37" s="169" t="s">
+      <c r="S37" s="158" t="s">
         <v>71</v>
       </c>
       <c r="T37"/>
@@ -35041,7 +35044,7 @@
       <c r="P38" s="70"/>
       <c r="Q38" s="85"/>
       <c r="R38" s="74"/>
-      <c r="S38" s="169" t="s">
+      <c r="S38" s="158" t="s">
         <v>71</v>
       </c>
       <c r="T38"/>
@@ -35109,7 +35112,7 @@
       <c r="P39" s="70"/>
       <c r="Q39" s="85"/>
       <c r="R39" s="74"/>
-      <c r="S39" s="169" t="s">
+      <c r="S39" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U39" s="88"/>
@@ -36166,7 +36169,7 @@
       <c r="P40" s="70"/>
       <c r="Q40" s="85"/>
       <c r="R40" s="74"/>
-      <c r="S40" s="169" t="s">
+      <c r="S40" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U40" s="88"/>
@@ -37223,7 +37226,7 @@
       <c r="P41" s="70"/>
       <c r="Q41" s="85"/>
       <c r="R41" s="74"/>
-      <c r="S41" s="169" t="s">
+      <c r="S41" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U41" s="88"/>
@@ -38280,7 +38283,7 @@
       <c r="P42" s="70"/>
       <c r="Q42" s="85"/>
       <c r="R42" s="74"/>
-      <c r="S42" s="169" t="s">
+      <c r="S42" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U42" s="88"/>
@@ -39337,7 +39340,7 @@
       <c r="P43" s="70"/>
       <c r="Q43" s="85"/>
       <c r="R43" s="74"/>
-      <c r="S43" s="169" t="s">
+      <c r="S43" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U43" s="88"/>
@@ -40394,7 +40397,7 @@
       <c r="P44" s="70"/>
       <c r="Q44" s="85"/>
       <c r="R44" s="74"/>
-      <c r="S44" s="169" t="s">
+      <c r="S44" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U44" s="88"/>
@@ -41451,7 +41454,7 @@
       <c r="P45" s="70"/>
       <c r="Q45" s="85"/>
       <c r="R45" s="74"/>
-      <c r="S45" s="169" t="s">
+      <c r="S45" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U45" s="88"/>
@@ -42508,7 +42511,7 @@
       <c r="P46" s="70"/>
       <c r="Q46" s="85"/>
       <c r="R46" s="74"/>
-      <c r="S46" s="169" t="s">
+      <c r="S46" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U46" s="88"/>
@@ -43565,7 +43568,7 @@
       <c r="P47" s="70"/>
       <c r="Q47" s="85"/>
       <c r="R47" s="74"/>
-      <c r="S47" s="169" t="s">
+      <c r="S47" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U47" s="88"/>
@@ -44622,7 +44625,7 @@
       <c r="P48" s="70"/>
       <c r="Q48" s="85"/>
       <c r="R48" s="74"/>
-      <c r="S48" s="169" t="s">
+      <c r="S48" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U48" s="88"/>
@@ -45679,7 +45682,7 @@
       <c r="P49" s="70"/>
       <c r="Q49" s="85"/>
       <c r="R49" s="74"/>
-      <c r="S49" s="169" t="s">
+      <c r="S49" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U49" s="88"/>
@@ -46736,7 +46739,7 @@
       <c r="P50" s="70"/>
       <c r="Q50" s="85"/>
       <c r="R50" s="74"/>
-      <c r="S50" s="169" t="s">
+      <c r="S50" s="158" t="s">
         <v>71</v>
       </c>
       <c r="T50"/>
@@ -46804,7 +46807,7 @@
       <c r="P51" s="70"/>
       <c r="Q51" s="85"/>
       <c r="R51" s="74"/>
-      <c r="S51" s="169" t="s">
+      <c r="S51" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U51" s="88"/>
@@ -47861,7 +47864,7 @@
       <c r="P52" s="70"/>
       <c r="Q52" s="85"/>
       <c r="R52" s="74"/>
-      <c r="S52" s="169" t="s">
+      <c r="S52" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U52" s="88"/>
@@ -48918,7 +48921,7 @@
       <c r="P53" s="70"/>
       <c r="Q53" s="85"/>
       <c r="R53" s="74"/>
-      <c r="S53" s="169" t="s">
+      <c r="S53" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U53" s="88"/>
@@ -49975,7 +49978,7 @@
       <c r="P54" s="70"/>
       <c r="Q54" s="85"/>
       <c r="R54" s="74"/>
-      <c r="S54" s="169" t="s">
+      <c r="S54" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U54" s="88"/>
@@ -51032,7 +51035,7 @@
       <c r="P55" s="70"/>
       <c r="Q55" s="85"/>
       <c r="R55" s="74"/>
-      <c r="S55" s="169" t="s">
+      <c r="S55" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U55" s="88"/>
@@ -52089,7 +52092,7 @@
       <c r="P56" s="70"/>
       <c r="Q56" s="85"/>
       <c r="R56" s="74"/>
-      <c r="S56" s="169" t="s">
+      <c r="S56" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U56" s="88"/>
@@ -53118,7 +53121,7 @@
       <c r="P57" s="70"/>
       <c r="Q57" s="85"/>
       <c r="R57" s="74"/>
-      <c r="S57" s="169"/>
+      <c r="S57" s="158"/>
       <c r="U57" s="88"/>
       <c r="V57" s="102"/>
       <c r="W57" s="136"/>
@@ -54145,7 +54148,7 @@
       <c r="P58" s="70"/>
       <c r="Q58" s="85"/>
       <c r="R58" s="74"/>
-      <c r="S58" s="169"/>
+      <c r="S58" s="158"/>
       <c r="U58" s="88"/>
       <c r="V58" s="102"/>
       <c r="W58" s="136"/>
@@ -55172,7 +55175,7 @@
       <c r="P59" s="70"/>
       <c r="Q59" s="85"/>
       <c r="R59" s="74"/>
-      <c r="S59" s="169"/>
+      <c r="S59" s="158"/>
       <c r="U59" s="88"/>
       <c r="V59" s="102"/>
       <c r="W59" s="136"/>
@@ -56199,7 +56202,7 @@
       <c r="P60" s="70"/>
       <c r="Q60" s="85"/>
       <c r="R60" s="74"/>
-      <c r="S60" s="169"/>
+      <c r="S60" s="158"/>
       <c r="U60" s="88"/>
       <c r="V60" s="102"/>
       <c r="W60" s="136"/>
@@ -57226,7 +57229,7 @@
       <c r="P61" s="70"/>
       <c r="Q61" s="85"/>
       <c r="R61" s="74"/>
-      <c r="S61" s="169"/>
+      <c r="S61" s="158"/>
       <c r="U61" s="88"/>
       <c r="V61" s="102"/>
       <c r="W61" s="136"/>
@@ -58253,7 +58256,7 @@
       <c r="P62" s="70"/>
       <c r="Q62" s="85"/>
       <c r="R62" s="74"/>
-      <c r="S62" s="169"/>
+      <c r="S62" s="158"/>
       <c r="U62" s="88"/>
       <c r="V62" s="102"/>
       <c r="W62" s="136"/>
@@ -59280,7 +59283,7 @@
       <c r="P63" s="70"/>
       <c r="Q63" s="85"/>
       <c r="R63" s="74"/>
-      <c r="S63" s="169"/>
+      <c r="S63" s="158"/>
       <c r="T63"/>
       <c r="U63" s="88"/>
       <c r="V63" s="102"/>
@@ -59318,7 +59321,7 @@
       <c r="P64" s="70"/>
       <c r="Q64" s="85"/>
       <c r="R64" s="74"/>
-      <c r="S64" s="169"/>
+      <c r="S64" s="158"/>
       <c r="T64"/>
       <c r="U64" s="88"/>
       <c r="V64" s="102"/>
@@ -71678,12 +71681,6 @@
           </x14:formula1>
           <xm:sqref>D15:D394</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BE497A2B-81FE-9B4E-B96E-C607ADE86557}">
-          <x14:formula1>
-            <xm:f>'Drop-down lists'!$G$2:$G$21</xm:f>
-          </x14:formula1>
-          <xm:sqref>I15:I394</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{64EB9F58-6FDA-8B4A-B5D0-278667DD507F}">
           <x14:formula1>
             <xm:f>'Drop-down lists'!$F$2:$F$209</xm:f>
@@ -71720,6 +71717,12 @@
           </x14:formula1>
           <xm:sqref>C15 C16:C17 C19:C394 C18</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BE497A2B-81FE-9B4E-B96E-C607ADE86557}">
+          <x14:formula1>
+            <xm:f>'Drop-down lists'!$G$2:$G$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>I15:I394</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -71733,8 +71736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL313"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -72147,7 +72150,7 @@
         <v>114</v>
       </c>
       <c r="G10" s="123" t="s">
-        <v>536</v>
+        <v>837</v>
       </c>
       <c r="M10" s="118" t="s">
         <v>116</v>
@@ -72171,7 +72174,7 @@
         <v>118</v>
       </c>
       <c r="G11" s="123" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M11" s="122" t="s">
         <v>120</v>
@@ -72193,8 +72196,8 @@
       <c r="F12" s="116" t="s">
         <v>123</v>
       </c>
-      <c r="G12" s="138" t="s">
-        <v>562</v>
+      <c r="G12" s="123" t="s">
+        <v>535</v>
       </c>
       <c r="M12" s="122" t="s">
         <v>125</v>
@@ -72217,8 +72220,8 @@
       <c r="F13" s="116" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="123" t="s">
-        <v>110</v>
+      <c r="G13" s="138" t="s">
+        <v>562</v>
       </c>
       <c r="M13" s="118" t="s">
         <v>130</v>
@@ -72241,8 +72244,8 @@
       <c r="F14" s="116" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="116" t="s">
-        <v>115</v>
+      <c r="G14" s="123" t="s">
+        <v>110</v>
       </c>
       <c r="M14" s="122" t="s">
         <v>134</v>
@@ -72267,7 +72270,7 @@
         <v>137</v>
       </c>
       <c r="G15" s="116" t="s">
-        <v>532</v>
+        <v>115</v>
       </c>
       <c r="M15" s="122" t="s">
         <v>139</v>
@@ -72292,7 +72295,7 @@
         <v>141</v>
       </c>
       <c r="G16" s="116" t="s">
-        <v>119</v>
+        <v>532</v>
       </c>
       <c r="M16" s="118" t="s">
         <v>142</v>
@@ -72317,7 +72320,7 @@
         <v>145</v>
       </c>
       <c r="G17" s="116" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M17" s="122" t="s">
         <v>146</v>
@@ -72341,7 +72344,7 @@
         <v>148</v>
       </c>
       <c r="G18" s="116" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M18" s="118" t="s">
         <v>149</v>
@@ -72365,7 +72368,7 @@
         <v>151</v>
       </c>
       <c r="G19" s="116" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M19" s="122" t="s">
         <v>152</v>
@@ -72389,7 +72392,7 @@
         <v>154</v>
       </c>
       <c r="G20" s="116" t="s">
-        <v>533</v>
+        <v>133</v>
       </c>
       <c r="M20" s="122" t="s">
         <v>155</v>
@@ -72413,7 +72416,7 @@
         <v>157</v>
       </c>
       <c r="G21" s="116" t="s">
-        <v>138</v>
+        <v>533</v>
       </c>
       <c r="M21" s="118" t="s">
         <v>158</v>
@@ -72437,6 +72440,9 @@
       <c r="F22" s="116" t="s">
         <v>160</v>
       </c>
+      <c r="G22" s="116" t="s">
+        <v>138</v>
+      </c>
       <c r="M22" s="122" t="s">
         <v>161</v>
       </c>
@@ -72475,7 +72481,6 @@
       <c r="F24" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="126"/>
       <c r="M24" s="118" t="s">
         <v>168</v>
       </c>
@@ -72615,6 +72620,7 @@
       <c r="F31" s="116" t="s">
         <v>189</v>
       </c>
+      <c r="G31" s="126"/>
       <c r="M31" s="122" t="s">
         <v>190</v>
       </c>
@@ -74687,7 +74693,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eJGU3TnrM7TUS36P6EF6OoUepfRxqvEYBttmdh2jpK/p0PFzl3txM9S88hoDVu8ScxrhCTA1475ID05WI3/y1w==" saltValue="ht+aVAqcEGcaWx2xT5yeQg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KE20ldI+90k4EmhtTykBF12NIi58WB4dUmkVHWmqRXK+Wmlp1tV5LcyGqw3GKKi4RR3kNPFKN8hU35MB3lLZBQ==" saltValue="cHcdjnvokeQZutMDl8L5rw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tests/fixtures/orderforms/1508.35.fastq.xlsx
+++ b/tests/fixtures/orderforms/1508.35.fastq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsdiazboada/Documents/Clinical_Genomics/repos/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF8C144-1A78-A845-A2A4-F3B8E9645BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BF57CE-DB55-054B-AC0A-5A150DCC2B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-13500" windowWidth="60160" windowHeight="33360" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-13480" windowWidth="60160" windowHeight="33340" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -2319,9 +2319,6 @@
       <t xml:space="preserve">Options available in drop-down list.
 </t>
     </r>
-  </si>
-  <si>
-    <t>This information is required  for data analysis with MIP (germline) and Tomte</t>
   </si>
   <si>
     <t>This information is optional for FFPE samples</t>
@@ -3780,6 +3777,9 @@
   </si>
   <si>
     <t>cytology (fixed)</t>
+  </si>
+  <si>
+    <t>This information is required  for data analysis with MIP, raredisease (germline) and Tomte</t>
   </si>
 </sst>
 </file>
@@ -5655,7 +5655,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="91" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5674,7 +5674,7 @@
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="92" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5703,17 +5703,17 @@
     </row>
     <row r="18" spans="1:1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="95" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="28" x14ac:dyDescent="0.15">
       <c r="A19" s="96" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="140" x14ac:dyDescent="0.15">
       <c r="A20" s="96" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -5723,7 +5723,7 @@
     </row>
     <row r="22" spans="1:1" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="98" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -5733,7 +5733,7 @@
     </row>
     <row r="24" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="96" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
@@ -5748,27 +5748,27 @@
     </row>
     <row r="27" spans="1:1" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="96" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="28" spans="1:1" s="112" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="96" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="95" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="43" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="95" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="127" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="155" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5790,7 +5790,7 @@
     </row>
     <row r="35" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="96" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -5807,20 +5807,20 @@
     </row>
     <row r="38" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="95" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B38" s="94"/>
       <c r="D38" s="94"/>
     </row>
     <row r="39" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="141" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D39" s="94"/>
     </row>
     <row r="40" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="95" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -5860,7 +5860,7 @@
     </row>
     <row r="48" spans="1:4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="98" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
@@ -5880,7 +5880,7 @@
     </row>
     <row r="52" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="95" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -5890,12 +5890,12 @@
     </row>
     <row r="54" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="109" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="95" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -5910,7 +5910,7 @@
     </row>
     <row r="58" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="95" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -5980,8 +5980,8 @@
   </sheetPr>
   <dimension ref="A1:AMM395"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9:X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -12300,7 +12300,7 @@
       </c>
       <c r="T9"/>
       <c r="U9" s="164" t="s">
-        <v>682</v>
+        <v>837</v>
       </c>
       <c r="V9" s="165"/>
       <c r="W9" s="165"/>
@@ -12311,7 +12311,7 @@
       </c>
       <c r="AA9" s="34"/>
       <c r="AB9" s="162" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AC9" s="162"/>
       <c r="AD9" s="162"/>
@@ -13631,7 +13631,7 @@
     </row>
     <row r="15" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="65" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B15" s="66" t="s">
         <v>66</v>
@@ -13643,7 +13643,7 @@
         <v>487</v>
       </c>
       <c r="E15" s="67" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F15" s="67" t="s">
         <v>563</v>
@@ -13667,14 +13667,14 @@
         <v>20</v>
       </c>
       <c r="M15" s="107" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N15" s="84" t="s">
         <v>64</v>
       </c>
       <c r="O15" s="49"/>
       <c r="P15" s="70" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="Q15" s="85" t="s">
         <v>72</v>
@@ -13707,13 +13707,13 @@
         <v>5</v>
       </c>
       <c r="AH15" s="70" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AI15" s="88">
         <v>10</v>
       </c>
       <c r="AJ15" s="70" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AK15"/>
       <c r="AL15"/>
@@ -14708,7 +14708,7 @@
     </row>
     <row r="16" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="65" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B16" s="66" t="s">
         <v>66</v>
@@ -14720,7 +14720,7 @@
         <v>487</v>
       </c>
       <c r="E16" s="67" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F16" s="67" t="s">
         <v>563</v>
@@ -14744,7 +14744,7 @@
         <v>21</v>
       </c>
       <c r="M16" s="107" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="N16" s="84" t="s">
         <v>74</v>
@@ -15769,7 +15769,7 @@
     </row>
     <row r="17" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="65" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B17" s="66" t="s">
         <v>66</v>
@@ -15781,7 +15781,7 @@
         <v>487</v>
       </c>
       <c r="E17" s="67" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F17" s="67" t="s">
         <v>563</v>
@@ -15805,7 +15805,7 @@
         <v>22</v>
       </c>
       <c r="M17" s="107" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N17" s="84" t="s">
         <v>74</v>
@@ -16826,7 +16826,7 @@
     </row>
     <row r="18" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="65" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B18" s="66" t="s">
         <v>66</v>
@@ -16838,7 +16838,7 @@
         <v>487</v>
       </c>
       <c r="E18" s="67" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F18" s="67" t="s">
         <v>563</v>
@@ -16862,7 +16862,7 @@
         <v>23</v>
       </c>
       <c r="M18" s="107" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="N18" s="84" t="s">
         <v>74</v>
@@ -17883,7 +17883,7 @@
     </row>
     <row r="19" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="65" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B19" s="66" t="s">
         <v>66</v>
@@ -17895,7 +17895,7 @@
         <v>487</v>
       </c>
       <c r="E19" s="67" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F19" s="67" t="s">
         <v>564</v>
@@ -17919,7 +17919,7 @@
         <v>24</v>
       </c>
       <c r="M19" s="107" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="N19" s="84" t="s">
         <v>74</v>
@@ -18940,7 +18940,7 @@
     </row>
     <row r="20" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="65" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B20" s="66" t="s">
         <v>66</v>
@@ -18952,7 +18952,7 @@
         <v>487</v>
       </c>
       <c r="E20" s="67" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F20" s="67" t="s">
         <v>564</v>
@@ -18976,7 +18976,7 @@
         <v>25</v>
       </c>
       <c r="M20" s="107" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="N20" s="84" t="s">
         <v>74</v>
@@ -19997,7 +19997,7 @@
     </row>
     <row r="21" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="65" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B21" s="66" t="s">
         <v>66</v>
@@ -20009,7 +20009,7 @@
         <v>487</v>
       </c>
       <c r="E21" s="67" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F21" s="67" t="s">
         <v>564</v>
@@ -20033,7 +20033,7 @@
         <v>26</v>
       </c>
       <c r="M21" s="107" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N21" s="84" t="s">
         <v>74</v>
@@ -21054,7 +21054,7 @@
     </row>
     <row r="22" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="65" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B22" s="66" t="s">
         <v>66</v>
@@ -21066,7 +21066,7 @@
         <v>487</v>
       </c>
       <c r="E22" s="67" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F22" s="67" t="s">
         <v>565</v>
@@ -21090,7 +21090,7 @@
         <v>27</v>
       </c>
       <c r="M22" s="107" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="N22" s="84" t="s">
         <v>74</v>
@@ -22111,7 +22111,7 @@
     </row>
     <row r="23" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="65" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B23" s="66" t="s">
         <v>66</v>
@@ -22123,7 +22123,7 @@
         <v>487</v>
       </c>
       <c r="E23" s="67" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F23" s="67" t="s">
         <v>564</v>
@@ -22147,7 +22147,7 @@
         <v>28</v>
       </c>
       <c r="M23" s="107" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="N23" s="84" t="s">
         <v>74</v>
@@ -23168,7 +23168,7 @@
     </row>
     <row r="24" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="65" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B24" s="66" t="s">
         <v>66</v>
@@ -23180,7 +23180,7 @@
         <v>487</v>
       </c>
       <c r="E24" s="67" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F24" s="67" t="s">
         <v>564</v>
@@ -23204,7 +23204,7 @@
         <v>29</v>
       </c>
       <c r="M24" s="107" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="N24" s="84" t="s">
         <v>74</v>
@@ -24225,7 +24225,7 @@
     </row>
     <row r="25" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="65" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B25" s="66" t="s">
         <v>66</v>
@@ -24237,7 +24237,7 @@
         <v>487</v>
       </c>
       <c r="E25" s="67" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F25" s="67" t="s">
         <v>564</v>
@@ -24261,7 +24261,7 @@
         <v>30</v>
       </c>
       <c r="M25" s="107" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="N25" s="84" t="s">
         <v>74</v>
@@ -25282,7 +25282,7 @@
     </row>
     <row r="26" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="65" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B26" s="66" t="s">
         <v>66</v>
@@ -25294,7 +25294,7 @@
         <v>487</v>
       </c>
       <c r="E26" s="67" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F26" s="67" t="s">
         <v>565</v>
@@ -25318,7 +25318,7 @@
         <v>31</v>
       </c>
       <c r="M26" s="107" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="N26" s="84" t="s">
         <v>74</v>
@@ -26339,7 +26339,7 @@
     </row>
     <row r="27" spans="1:1026" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="65" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B27" s="66" t="s">
         <v>66</v>
@@ -26351,7 +26351,7 @@
         <v>487</v>
       </c>
       <c r="E27" s="67" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F27" s="67" t="s">
         <v>122</v>
@@ -26375,7 +26375,7 @@
         <v>32</v>
       </c>
       <c r="M27" s="107" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="N27" s="84" t="s">
         <v>74</v>
@@ -26407,7 +26407,7 @@
     </row>
     <row r="28" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="65" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B28" s="66" t="s">
         <v>66</v>
@@ -26419,7 +26419,7 @@
         <v>487</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F28" s="67" t="s">
         <v>122</v>
@@ -26443,7 +26443,7 @@
         <v>33</v>
       </c>
       <c r="M28" s="107" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N28" s="84" t="s">
         <v>74</v>
@@ -27464,7 +27464,7 @@
     </row>
     <row r="29" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="65" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B29" s="66" t="s">
         <v>66</v>
@@ -27476,7 +27476,7 @@
         <v>487</v>
       </c>
       <c r="E29" s="67" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F29" s="67" t="s">
         <v>127</v>
@@ -27500,7 +27500,7 @@
         <v>34</v>
       </c>
       <c r="M29" s="107" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="N29" s="84" t="s">
         <v>74</v>
@@ -28521,7 +28521,7 @@
     </row>
     <row r="30" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="65" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B30" s="66" t="s">
         <v>66</v>
@@ -28533,7 +28533,7 @@
         <v>487</v>
       </c>
       <c r="E30" s="67" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F30" s="67" t="s">
         <v>136</v>
@@ -28545,7 +28545,7 @@
         <v>67</v>
       </c>
       <c r="I30" s="82" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J30" s="83" t="s">
         <v>93</v>
@@ -28557,7 +28557,7 @@
         <v>35</v>
       </c>
       <c r="M30" s="107" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="N30" s="84" t="s">
         <v>74</v>
@@ -29578,7 +29578,7 @@
     </row>
     <row r="31" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="65" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B31" s="66" t="s">
         <v>66</v>
@@ -29590,7 +29590,7 @@
         <v>487</v>
       </c>
       <c r="E31" s="67" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F31" s="67" t="s">
         <v>136</v>
@@ -29614,7 +29614,7 @@
         <v>36</v>
       </c>
       <c r="M31" s="107" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="N31" s="84" t="s">
         <v>74</v>
@@ -30635,7 +30635,7 @@
     </row>
     <row r="32" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="65" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B32" s="66" t="s">
         <v>66</v>
@@ -30647,7 +30647,7 @@
         <v>487</v>
       </c>
       <c r="E32" s="67" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F32" s="67" t="s">
         <v>144</v>
@@ -30671,7 +30671,7 @@
         <v>37</v>
       </c>
       <c r="M32" s="107" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="N32" s="84" t="s">
         <v>74</v>
@@ -31692,7 +31692,7 @@
     </row>
     <row r="33" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="65" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B33" s="66" t="s">
         <v>66</v>
@@ -31704,7 +31704,7 @@
         <v>487</v>
       </c>
       <c r="E33" s="67" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F33" s="67" t="s">
         <v>497</v>
@@ -31728,7 +31728,7 @@
         <v>38</v>
       </c>
       <c r="M33" s="107" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="N33" s="84" t="s">
         <v>74</v>
@@ -32749,7 +32749,7 @@
     </row>
     <row r="34" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="65" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B34" s="66" t="s">
         <v>66</v>
@@ -32761,7 +32761,7 @@
         <v>487</v>
       </c>
       <c r="E34" s="67" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F34" s="67" t="s">
         <v>122</v>
@@ -32785,7 +32785,7 @@
         <v>39</v>
       </c>
       <c r="M34" s="107" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="N34" s="84" t="s">
         <v>74</v>
@@ -33806,7 +33806,7 @@
     </row>
     <row r="35" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="65" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B35" s="66" t="s">
         <v>66</v>
@@ -33818,7 +33818,7 @@
         <v>487</v>
       </c>
       <c r="E35" s="67" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F35" s="67" t="s">
         <v>127</v>
@@ -33842,7 +33842,7 @@
         <v>40</v>
       </c>
       <c r="M35" s="107" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="N35" s="84" t="s">
         <v>74</v>
@@ -34863,7 +34863,7 @@
     </row>
     <row r="36" spans="1:1026" s="76" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="65" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B36" s="66" t="s">
         <v>66</v>
@@ -34875,7 +34875,7 @@
         <v>487</v>
       </c>
       <c r="E36" s="67" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F36" s="67" t="s">
         <v>136</v>
@@ -34899,7 +34899,7 @@
         <v>41</v>
       </c>
       <c r="M36" s="107" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N36" s="84" t="s">
         <v>74</v>
@@ -34931,7 +34931,7 @@
     </row>
     <row r="37" spans="1:1026" s="76" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="65" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B37" s="66" t="s">
         <v>66</v>
@@ -34943,7 +34943,7 @@
         <v>487</v>
       </c>
       <c r="E37" s="67" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F37" s="67" t="s">
         <v>144</v>
@@ -34967,7 +34967,7 @@
         <v>42</v>
       </c>
       <c r="M37" s="107" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="N37" s="84" t="s">
         <v>74</v>
@@ -34999,7 +34999,7 @@
     </row>
     <row r="38" spans="1:1026" s="76" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="65" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B38" s="66" t="s">
         <v>66</v>
@@ -35011,7 +35011,7 @@
         <v>487</v>
       </c>
       <c r="E38" s="67" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F38" s="67" t="s">
         <v>497</v>
@@ -35035,7 +35035,7 @@
         <v>43</v>
       </c>
       <c r="M38" s="107" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="N38" s="84" t="s">
         <v>74</v>
@@ -35067,7 +35067,7 @@
     </row>
     <row r="39" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="65" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B39" s="66" t="s">
         <v>66</v>
@@ -35079,7 +35079,7 @@
         <v>487</v>
       </c>
       <c r="E39" s="67" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F39" s="67" t="s">
         <v>122</v>
@@ -35103,7 +35103,7 @@
         <v>44</v>
       </c>
       <c r="M39" s="107" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N39" s="84" t="s">
         <v>74</v>
@@ -36124,7 +36124,7 @@
     </row>
     <row r="40" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="65" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B40" s="66" t="s">
         <v>66</v>
@@ -36136,7 +36136,7 @@
         <v>487</v>
       </c>
       <c r="E40" s="67" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F40" s="67" t="s">
         <v>127</v>
@@ -36160,7 +36160,7 @@
         <v>45</v>
       </c>
       <c r="M40" s="107" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="N40" s="84" t="s">
         <v>74</v>
@@ -37181,7 +37181,7 @@
     </row>
     <row r="41" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="65" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B41" s="66" t="s">
         <v>66</v>
@@ -37193,7 +37193,7 @@
         <v>487</v>
       </c>
       <c r="E41" s="67" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F41" s="67" t="s">
         <v>136</v>
@@ -37217,7 +37217,7 @@
         <v>46</v>
       </c>
       <c r="M41" s="107" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="N41" s="84" t="s">
         <v>74</v>
@@ -38238,7 +38238,7 @@
     </row>
     <row r="42" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="65" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B42" s="66" t="s">
         <v>66</v>
@@ -38250,7 +38250,7 @@
         <v>487</v>
       </c>
       <c r="E42" s="67" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F42" s="67" t="s">
         <v>144</v>
@@ -38274,7 +38274,7 @@
         <v>47</v>
       </c>
       <c r="M42" s="107" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="N42" s="84" t="s">
         <v>74</v>
@@ -39295,7 +39295,7 @@
     </row>
     <row r="43" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="65" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B43" s="66" t="s">
         <v>66</v>
@@ -39307,7 +39307,7 @@
         <v>487</v>
       </c>
       <c r="E43" s="67" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F43" s="67" t="s">
         <v>497</v>
@@ -39331,7 +39331,7 @@
         <v>48</v>
       </c>
       <c r="M43" s="107" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="N43" s="84" t="s">
         <v>74</v>
@@ -40352,7 +40352,7 @@
     </row>
     <row r="44" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="65" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B44" s="66" t="s">
         <v>66</v>
@@ -40364,7 +40364,7 @@
         <v>487</v>
       </c>
       <c r="E44" s="67" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F44" s="67" t="s">
         <v>122</v>
@@ -40388,7 +40388,7 @@
         <v>49</v>
       </c>
       <c r="M44" s="107" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="N44" s="84" t="s">
         <v>74</v>
@@ -41409,7 +41409,7 @@
     </row>
     <row r="45" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="65" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B45" s="66" t="s">
         <v>66</v>
@@ -41421,7 +41421,7 @@
         <v>487</v>
       </c>
       <c r="E45" s="67" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F45" s="67" t="s">
         <v>127</v>
@@ -41445,7 +41445,7 @@
         <v>50</v>
       </c>
       <c r="M45" s="107" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="N45" s="84" t="s">
         <v>74</v>
@@ -42466,7 +42466,7 @@
     </row>
     <row r="46" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="65" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B46" s="66" t="s">
         <v>66</v>
@@ -42478,7 +42478,7 @@
         <v>487</v>
       </c>
       <c r="E46" s="67" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F46" s="67" t="s">
         <v>136</v>
@@ -42502,7 +42502,7 @@
         <v>51</v>
       </c>
       <c r="M46" s="107" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N46" s="84" t="s">
         <v>74</v>
@@ -43523,7 +43523,7 @@
     </row>
     <row r="47" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="65" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B47" s="66" t="s">
         <v>66</v>
@@ -43535,7 +43535,7 @@
         <v>487</v>
       </c>
       <c r="E47" s="67" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F47" s="67" t="s">
         <v>144</v>
@@ -43559,7 +43559,7 @@
         <v>52</v>
       </c>
       <c r="M47" s="107" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="N47" s="84" t="s">
         <v>74</v>
@@ -44580,7 +44580,7 @@
     </row>
     <row r="48" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="65" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B48" s="66" t="s">
         <v>66</v>
@@ -44592,7 +44592,7 @@
         <v>487</v>
       </c>
       <c r="E48" s="67" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F48" s="67" t="s">
         <v>497</v>
@@ -44616,7 +44616,7 @@
         <v>53</v>
       </c>
       <c r="M48" s="107" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N48" s="84" t="s">
         <v>74</v>
@@ -45637,7 +45637,7 @@
     </row>
     <row r="49" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="65" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B49" s="66" t="s">
         <v>66</v>
@@ -45649,7 +45649,7 @@
         <v>487</v>
       </c>
       <c r="E49" s="67" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F49" s="67" t="s">
         <v>122</v>
@@ -45673,7 +45673,7 @@
         <v>54</v>
       </c>
       <c r="M49" s="107" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N49" s="84" t="s">
         <v>74</v>
@@ -46694,7 +46694,7 @@
     </row>
     <row r="50" spans="1:1026" s="78" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="77" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B50" s="66" t="s">
         <v>66</v>
@@ -46706,7 +46706,7 @@
         <v>487</v>
       </c>
       <c r="E50" s="67" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F50" s="67" t="s">
         <v>127</v>
@@ -46730,7 +46730,7 @@
         <v>55</v>
       </c>
       <c r="M50" s="107" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N50" s="84" t="s">
         <v>74</v>
@@ -46762,7 +46762,7 @@
     </row>
     <row r="51" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="77" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B51" s="66" t="s">
         <v>66</v>
@@ -46774,7 +46774,7 @@
         <v>487</v>
       </c>
       <c r="E51" s="67" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F51" s="67" t="s">
         <v>136</v>
@@ -46798,7 +46798,7 @@
         <v>56</v>
       </c>
       <c r="M51" s="107" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="N51" s="84" t="s">
         <v>74</v>
@@ -47819,7 +47819,7 @@
     </row>
     <row r="52" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="77" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B52" s="66" t="s">
         <v>66</v>
@@ -47831,7 +47831,7 @@
         <v>487</v>
       </c>
       <c r="E52" s="67" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F52" s="67" t="s">
         <v>144</v>
@@ -47855,7 +47855,7 @@
         <v>57</v>
       </c>
       <c r="M52" s="107" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="N52" s="84" t="s">
         <v>74</v>
@@ -48876,7 +48876,7 @@
     </row>
     <row r="53" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="77" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B53" s="66" t="s">
         <v>66</v>
@@ -48888,7 +48888,7 @@
         <v>487</v>
       </c>
       <c r="E53" s="67" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F53" s="67" t="s">
         <v>497</v>
@@ -48912,7 +48912,7 @@
         <v>58</v>
       </c>
       <c r="M53" s="107" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="N53" s="84" t="s">
         <v>74</v>
@@ -49933,7 +49933,7 @@
     </row>
     <row r="54" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="77" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B54" s="66" t="s">
         <v>66</v>
@@ -49945,7 +49945,7 @@
         <v>487</v>
       </c>
       <c r="E54" s="67" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F54" s="67" t="s">
         <v>122</v>
@@ -49969,7 +49969,7 @@
         <v>59</v>
       </c>
       <c r="M54" s="107" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="N54" s="84" t="s">
         <v>74</v>
@@ -50990,7 +50990,7 @@
     </row>
     <row r="55" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="77" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B55" s="66" t="s">
         <v>66</v>
@@ -51002,7 +51002,7 @@
         <v>487</v>
       </c>
       <c r="E55" s="67" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F55" s="67" t="s">
         <v>127</v>
@@ -51026,7 +51026,7 @@
         <v>60</v>
       </c>
       <c r="M55" s="107" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="N55" s="84" t="s">
         <v>74</v>
@@ -52047,7 +52047,7 @@
     </row>
     <row r="56" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="77" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B56" s="66" t="s">
         <v>66</v>
@@ -52059,7 +52059,7 @@
         <v>487</v>
       </c>
       <c r="E56" s="67" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F56" s="67" t="s">
         <v>136</v>
@@ -52083,7 +52083,7 @@
         <v>61</v>
       </c>
       <c r="M56" s="107" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="N56" s="84" t="s">
         <v>74</v>
@@ -71569,7 +71569,7 @@
       <c r="AJ395" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="l8y03mXk7SOWxZNDh+NNWzQ/azJqO1AJSQTvwG0Yaz94wgaD3PApXOBnwwmwNFulXcJ70tK6Gs684owG+AdrQA==" saltValue="9CEXPaj4LhzUbhz9GTfvuw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="14UEJ7UUU6zAHWbztdOLg93tH+6TxZUkd2ijMZi8pPJT1MS67fUSUtWo3opfQaJjp3sL6uhhel2p99WOSpOg+w==" saltValue="3DEKbg7yAstcGP7jg/r9YA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="A9:N9"/>
     <mergeCell ref="AB9:AD9"/>
@@ -71736,7 +71736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL313"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -71835,7 +71835,7 @@
         <v>64</v>
       </c>
       <c r="B2" s="108" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C2" s="114" t="s">
         <v>487</v>
@@ -71889,7 +71889,7 @@
         <v>74</v>
       </c>
       <c r="B3" s="108" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C3" s="119" t="s">
         <v>450</v>
@@ -72150,7 +72150,7 @@
         <v>114</v>
       </c>
       <c r="G10" s="123" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="M10" s="118" t="s">
         <v>116</v>
@@ -72457,7 +72457,7 @@
       <c r="B23" s="125"/>
       <c r="C23" s="125"/>
       <c r="D23" s="108" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F23" s="116" t="s">
         <v>163</v>
